--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -43,45 +43,45 @@
     <t>returned</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>apart</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>paid</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
@@ -91,30 +91,30 @@
     <t>tried</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -142,19 +142,19 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>love</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>great</t>
@@ -596,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K3">
-        <v>0.6307692307692307</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9662162162162162</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>0.4285714285714285</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>0.3763440860215054</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -796,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9368932038834952</v>
+        <v>0.9320388349514563</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K7">
-        <v>0.242467718794835</v>
+        <v>0.2446483180428135</v>
       </c>
       <c r="L7">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="M7">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>528</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9318181818181818</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K8">
-        <v>0.2262996941896024</v>
+        <v>0.2381635581061693</v>
       </c>
       <c r="L8">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="M8">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>253</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>0.1566858080393765</v>
+        <v>0.1591468416735029</v>
       </c>
       <c r="L9">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N9">
         <v>0.99</v>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9032258064516129</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K10">
-        <v>0.09749303621169916</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8870967741935484</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,31 +1014,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K11">
-        <v>0.07662337662337662</v>
+        <v>0.07852044127190136</v>
       </c>
       <c r="L11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8421052631578947</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K12">
-        <v>0.06134969325153374</v>
+        <v>0.05959684487291849</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1122,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7592592592592593</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1151,10 +1151,10 @@
         <v>0.734375</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1174,13 +1174,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.71875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6825396825396826</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1252,13 +1252,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6229508196721312</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1278,13 +1278,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1304,13 +1304,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4834123222748815</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C21">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1330,13 +1330,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4761904761904762</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1356,13 +1356,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4492753623188406</v>
+        <v>0.4360189573459716</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1382,7 +1382,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4123711340206185</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1408,13 +1408,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3796296296296297</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1434,13 +1434,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3663366336633663</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C26">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1460,13 +1460,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3536585365853658</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1486,13 +1486,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3536231884057971</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1512,13 +1512,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2974683544303797</v>
+        <v>0.2848101265822785</v>
       </c>
       <c r="C29">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1538,13 +1538,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1590,13 +1590,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1376811594202899</v>
+        <v>0.1340579710144928</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1616,13 +1616,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09691629955947137</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1642,25 +1642,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07726597325408618</v>
+        <v>0.09940652818991098</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D34">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
